--- a/biology/Zoologie/Choucador_royal/Choucador_royal.xlsx
+++ b/biology/Zoologie/Choucador_royal/Choucador_royal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lamprotornis regius
 Le Choucador royal (Lamprotornis regius), anciennement Spréo royal, est une espèce de passereaux de la famille des sturnidés pouvant atteindre 35 cm de long. Il vit dans les prairies et savanes du nord-est de l'Afrique (Somalie, Éthiopie, Kenya et nord de la Tanzanie).
